--- a/FileStorage/ExcelFiles/Book4.xlsx
+++ b/FileStorage/ExcelFiles/Book4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocai\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293BDC21-8139-4BC6-8562-39579A8D7A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A290941-3678-4B71-ADA4-2C2504DFD5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3862F36-B273-448F-862B-C238204A0372}"/>
+    <workbookView xWindow="28680" yWindow="-6990" windowWidth="29040" windowHeight="16440" xr2:uid="{B3862F36-B273-448F-862B-C238204A0372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
   <si>
     <t>Day</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,126 +619,216 @@
       <c r="B16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36">
         <v>20</v>
